--- a/api-python/topOrder.xlsx
+++ b/api-python/topOrder.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All_orders" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -141,18 +141,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="API_TEST" displayName="API_TEST" ref="A1:C1" headerRowCount="1">
-  <autoFilter ref="A1:C1"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Created_Date"/>
-    <tableColumn id="2" name="NAME"/>
-    <tableColumn id="3" name="count(*)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -437,12 +425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,32 +438,547 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Created_Date</t>
+          <t>ORDER_TYPE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count(*)</t>
-        </is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Onboarding</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AddService</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AddServiceToNewAccount</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AddSubscription</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BlockVoucher</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BookDeposit</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AdjustMainAccount</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CancelSubscription</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ChangeSim</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ChangeSubscription</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CreateDocument</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CreateIdentification</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gifting</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>HardBarring</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>LifeCycleSync</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>LifeCycleSyncTermination</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>LineBarring</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>LineUnBarring</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>MakePayment</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>MoveToFWA</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>NumberRecycle</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>ResumeServiceStopAutoRenewal</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>SuspendService</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>TransferOfService</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>UpdateBucket</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>UpdateCreditLimit</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>UpdateLanguage</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>UpdateProfile</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>UnlockMpesa</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>UpdateService</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>DeviceBlacklistWhitelist</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>VoucherRecharge</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>